--- a/Examples/CrystallisationTests/NeaveExperiments/Neave.xlsx
+++ b/Examples/CrystallisationTests/NeaveExperiments/Neave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\2022\BarometryReview\rhyoliteMELTS method\SubProcMethods\ParallelProcessing\Python Package\NeaveExperiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\2022\GitHub\pyMELTScalc\Examples\CrystallisationTests\NeaveExperiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336464D4-84CD-4404-B35B-085CCBED82E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED527A1-CA3C-447A-8A4C-2AAF28F89A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EAD249A5-3C4C-43FD-BA38-6F04E6D818D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EAD249A5-3C4C-43FD-BA38-6F04E6D818D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,9 +627,6 @@
     <t>TiO2_Err</t>
   </si>
   <si>
-    <t>Al2O3_Er</t>
-  </si>
-  <si>
     <t>Cr2O3_Err</t>
   </si>
   <si>
@@ -652,6 +649,9 @@
   </si>
   <si>
     <t>P2O5_Err</t>
+  </si>
+  <si>
+    <t>Al2O3_Err</t>
   </si>
 </sst>
 </file>
@@ -1133,35 +1133,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA58271A-A10D-441E-A75B-64AC5D1E43A2}">
   <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="9.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.6640625" style="1"/>
+    <col min="16" max="17" width="12.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="9.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
@@ -1289,34 +1289,34 @@
         <v>121</v>
       </c>
       <c r="AQ1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AY1" s="6" t="s">
-        <v>130</v>
-      </c>
     </row>
-    <row r="2" spans="1:52" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AZ8" s="24"/>
     </row>
-    <row r="9" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="AZ9" s="24"/>
     </row>
-    <row r="10" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="AZ10" s="24"/>
     </row>
-    <row r="11" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="AZ11" s="24"/>
     </row>
-    <row r="12" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="AZ12" s="24"/>
     </row>
-    <row r="13" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="AZ13" s="24"/>
     </row>
-    <row r="14" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>23</v>
       </c>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="AZ14" s="24"/>
     </row>
-    <row r="15" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>59</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>59</v>
       </c>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="AZ28" s="24"/>
     </row>
-    <row r="29" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="AZ29" s="24"/>
     </row>
-    <row r="30" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="AZ30" s="24"/>
     </row>
-    <row r="31" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="AZ31" s="24"/>
     </row>
-    <row r="32" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="AZ32" s="24"/>
     </row>
-    <row r="33" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="AZ33" s="24"/>
     </row>
-    <row r="34" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>59</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="AZ34" s="24"/>
     </row>
-    <row r="35" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>59</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="41" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
